--- a/biology/Médecine/Yves_Laporte/Yves_Laporte.xlsx
+++ b/biology/Médecine/Yves_Laporte/Yves_Laporte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yves Laporte (né le 21 décembre 1920 à Toulouse - mort le 15 mai 2012 à Paris)[1] est un médecin et physiologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yves Laporte (né le 21 décembre 1920 à Toulouse - mort le 15 mai 2012 à Paris) est un médecin et physiologiste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il tient la chaire de neurophysiologie du Collège de France de 1972 à 1991 et est en outre administrateur du Collège de France[2] de 1980 à 1991. À ce titre, il est président du conseil d'administration de la Fondation Hugot du Collège de France, où il siège de 1981 à 1991. Il est élu à l'Académie des sciences en juin 1985.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il tient la chaire de neurophysiologie du Collège de France de 1972 à 1991 et est en outre administrateur du Collège de France de 1980 à 1991. À ce titre, il est président du conseil d'administration de la Fondation Hugot du Collège de France, où il siège de 1981 à 1991. Il est élu à l'Académie des sciences en juin 1985.
 Il étudie le fonctionnement du système nerveux et ses phénomènes bioélectriques.
 Il reçoit en 1981 le grand prix scientifique de la ville de Paris.
 </t>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Commandeur de la Légion d'honneur, grand-croix de l'Ordre national du Mérite et commandeur des Palmes académiques.
 </t>
